--- a/excel/themnhanvien.xlsx
+++ b/excel/themnhanvien.xlsx
@@ -53,7 +53,7 @@
     <t>0387913344</t>
   </si>
   <si>
-    <t>transinh085@gmail.com</t>
+    <t>transinh01125@gmail.com</t>
   </si>
   <si>
     <t>Hoàng Thái Công</t>
@@ -62,7 +62,7 @@
     <t>0355374321</t>
   </si>
   <si>
-    <t>musicanime2501@gmail.com</t>
+    <t>musicanime21300@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,6 +716,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -1257,7 +1260,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1296,10 +1299,10 @@
       <c r="C2" s="3">
         <v>37975</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1313,14 +1316,18 @@
       <c r="C3" s="3">
         <v>37722</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="musicanime21300@gmail.com" tooltip="mailto:musicanime21300@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="transinh01125@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/excel/themnhanvien.xlsx
+++ b/excel/themnhanvien.xlsx
@@ -50,19 +50,19 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>0387913344</t>
+    <t>0387913341</t>
   </si>
   <si>
-    <t>transinh01125@gmail.com</t>
+    <t>transinh0asd25@gmail.com</t>
   </si>
   <si>
     <t>Hoàng Thái Công</t>
   </si>
   <si>
-    <t>0355374321</t>
+    <t>0387987393</t>
   </si>
   <si>
-    <t>musicanime21300@gmail.com</t>
+    <t>musicanime213as00@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +719,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -1260,7 +1263,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1299,7 +1302,7 @@
       <c r="C2" s="3">
         <v>37975</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1316,17 +1319,17 @@
       <c r="C3" s="3">
         <v>37722</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="musicanime21300@gmail.com" tooltip="mailto:musicanime21300@gmail.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="transinh01125@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="musicanime213as00@gmail.com" tooltip="mailto:musicanime213as00@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="transinh0asd25@gmail.com" tooltip="mailto:transinh0asd25@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
